--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -1003,7 +1003,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ENTER NEAR "BIRTH HOSPITAL"</t>
+          <t>*ENTER NEAR "BIRTH HOSPITAL"</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>ENTER THRU SURGICAL CENTER</t>
+          <t>*ENTER THRU SURGICAL CENTER</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y104"/>
+  <dimension ref="A1:Y105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2632,7 +2632,11 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Outside auditors here</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -2674,22 +2678,9 @@
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -2732,15 +2723,20 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -2780,12 +2776,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2841,20 +2837,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -2897,15 +2888,20 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -2950,8 +2946,16 @@
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -4888,7 +4892,11 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Outside auditors here</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
@@ -4914,21 +4922,9 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
@@ -4955,15 +4951,19 @@
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -5025,12 +5025,12 @@
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -5060,12 +5060,12 @@
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -5095,12 +5095,12 @@
       <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -5130,19 +5130,15 @@
       <c r="P102" t="inlineStr"/>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Train w/ Angela</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
@@ -5169,15 +5165,19 @@
       <c r="P103" t="inlineStr"/>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr"/>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Train w/ Angela</t>
+        </is>
+      </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
@@ -5204,12 +5204,12 @@
       <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S104" t="inlineStr"/>
@@ -5220,6 +5220,41 @@
       <c r="X104" t="inlineStr"/>
       <c r="Y104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -921,7 +921,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>7:15 am meet for Sarah, Aivy &amp; Lori at Wayside Park</t>
+          <t>7:30 am meet for Sarah, Aivy &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>4:45 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Sarah 5:15am @ Hwy N</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -2857,7 +2857,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>meet Sarah 5:30am @ Hwy N</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -1095,7 +1095,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t xml:space="preserve"> @Store Equipment After -equipment to Palmer</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -2403,7 +2403,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2 AT WI AVE CAMPUS, 5 AT SPRING ST CAMPUS (NEED MINI POST IT NOTES)</t>
+          <t>*2 AT WI AVE CAMPUS, 5 AT SPRING ST CAMPUS (NEED MINI POST IT NOTES)</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,7 +2403,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*2 AT WI AVE CAMPUS, 5 AT SPRING ST CAMPUS (NEED MINI POST IT NOTES)</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL   </t>
+          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS, RACINE</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2532,7 +2532,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>*ENTER THRU SURGICAL CENTER</t>
+          <t>3801 SPRING ST</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2579,7 +2579,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP WI AVE CAMPUS, RACINE</t>
+          <t>https://goo.gl/maps/PjumoiJbqD62</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2626,7 +2626,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>1320 WISCONSIN AVE</t>
+          <t>NO CELL RECEPTION AT THESE TWO LOCATIONS</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/raiuDa4wRko</t>
+          <t>5:00 am meet for Sarah, Aivy &amp; Lori at Wayside Park</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2714,11 +2714,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
@@ -2766,13 +2762,22 @@
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store,
+Spring St (Take both your pc's) Cancer Cntr process</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -2827,13 +2832,21 @@
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS, RACINE</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -2878,13 +2891,21 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>3801 SPRING ST</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -2938,13 +2959,21 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PjumoiJbqD62</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -2989,13 +3018,21 @@
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>NO CELL RECEPTION AT THESE TWO LOCATIONS</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3037,11 +3074,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>5:00 am meet for Sarah, Aivy &amp; Lori at Wayside Park</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3130,22 +3163,13 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>@ Store,
-Spring St (Take both your pc's) Cancer Cntr process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3191,21 +3215,13 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store w/ Sarah</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3238,22 +3254,13 @@
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>WI Ave 
-(Take your pc), Driver</t>
-        </is>
-      </c>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3286,21 +3293,13 @@
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>25406 75TH ST</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3341,21 +3340,13 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3392,21 +3383,13 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>TO FOLLOW</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3439,21 +3422,13 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3499,7 +3474,11 @@
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3542,7 +3521,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>25555 75TH ST</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3587,7 +3570,7 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -3637,11 +3620,7 @@
       </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3683,13 +3662,21 @@
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -3734,13 +3721,21 @@
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3774,11 +3769,7 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -3813,11 +3804,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -3854,7 +3841,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -3893,7 +3880,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -3932,7 +3919,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>AURORA OUTPATIENT RX #1145 ELKHORN</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -3967,7 +3954,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>W3985 COUNTY ROAD NN</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4008,7 +3995,11 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/DNeRzd2PfnuGBCUo6</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4058,21 +4049,13 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>*5:00 am office leave time</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4121,21 +4104,9 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4160,9 +4131,21 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
@@ -4187,9 +4170,22 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>@ Store,
+Gray Van</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
@@ -4223,11 +4219,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -4262,11 +4254,7 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
@@ -4303,7 +4291,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1145 ELKHORN</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4342,7 +4330,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>W3985 COUNTY ROAD NN</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -4381,7 +4369,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DNeRzd2PfnuGBCUo6</t>
+          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -4412,7 +4400,7 @@
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
-          <t>*5:00 am office leave time</t>
+          <t>1901 N STATE ST</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -4465,7 +4453,11 @@
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -4507,21 +4499,13 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Outside auditors here</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -4562,22 +4546,9 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>@ Store,
-Gray Van</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -4618,9 +4589,21 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
@@ -4665,8 +4648,16 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
@@ -4708,10 +4699,14 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -4751,10 +4746,14 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -4790,10 +4789,14 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>KELLEY #82, STATE ST MOBIL, BELVIDERE</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -4829,10 +4832,14 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>1901 N STATE ST</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -4860,13 +4867,21 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4TPgfMygjsLQ8pYB9</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Train w/ Angela</t>
+        </is>
+      </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
@@ -4891,10 +4906,14 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Outside auditors here</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -4922,8 +4941,16 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
@@ -4932,329 +4959,6 @@
       <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Train w/ Angela</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -1095,7 +1095,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> @Store Equipment After -equipment to Palmer</t>
+          <t xml:space="preserve"> @Store Equip, After -equipment to Palmer</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -2673,7 +2673,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>5:00 am meet for Sarah, Aivy &amp; Lori at Wayside Park</t>
+          <t>5:00 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Madison Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Madison Schedule.xlsx
@@ -3009,7 +3009,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
